--- a/weekend_project_1/expedia_report_monthly_january_2018.xlsx
+++ b/weekend_project_1/expedia_report_monthly_january_2018.xlsx
@@ -1,30 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsmouse\Desktop\AARP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/classwork/weekend_project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_09680EE649CA3234E6BE0EDD038CA8E722476214" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5F78D-40C8-9842-A809-49EDE200A2F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Rolling MoM" sheetId="1" r:id="rId1"/>
     <sheet name="VOC Rolling MoM" sheetId="5" r:id="rId2"/>
     <sheet name="Monthly Verbatim Statements" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179020"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -3933,7 +3926,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5453,19 +5446,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="62.1">
+    <row r="1" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5500,7 +5493,7 @@
       <c r="V1" s="66"/>
       <c r="W1" s="66"/>
     </row>
-    <row r="2" spans="1:23" ht="15.6">
+    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="84">
         <v>42795</v>
       </c>
@@ -5537,7 +5530,7 @@
       <c r="V2" s="67"/>
       <c r="W2" s="67"/>
     </row>
-    <row r="3" spans="1:23" ht="15.6">
+    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="84">
         <v>42842</v>
       </c>
@@ -5574,7 +5567,7 @@
       <c r="V3" s="67"/>
       <c r="W3" s="67"/>
     </row>
-    <row r="4" spans="1:23" ht="15.6">
+    <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="84">
         <v>42872</v>
       </c>
@@ -5611,7 +5604,7 @@
       <c r="V4" s="66"/>
       <c r="W4" s="66"/>
     </row>
-    <row r="5" spans="1:23" ht="15.6">
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="84">
         <v>42903</v>
       </c>
@@ -5648,7 +5641,7 @@
       <c r="V5" s="66"/>
       <c r="W5" s="66"/>
     </row>
-    <row r="6" spans="1:23" ht="15.6">
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="84">
         <v>42933</v>
       </c>
@@ -5685,7 +5678,7 @@
       <c r="V6" s="66"/>
       <c r="W6" s="66"/>
     </row>
-    <row r="7" spans="1:23" ht="15.6">
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="84">
         <v>42964</v>
       </c>
@@ -5722,7 +5715,7 @@
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
     </row>
-    <row r="8" spans="1:23" ht="15.6">
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="84">
         <v>42995</v>
       </c>
@@ -5759,7 +5752,7 @@
       <c r="V8" s="66"/>
       <c r="W8" s="66"/>
     </row>
-    <row r="9" spans="1:23" ht="15.6">
+    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="84">
         <v>43025</v>
       </c>
@@ -5796,7 +5789,7 @@
       <c r="V9" s="66"/>
       <c r="W9" s="66"/>
     </row>
-    <row r="10" spans="1:23" ht="15.6">
+    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="84">
         <v>43056</v>
       </c>
@@ -5833,7 +5826,7 @@
       <c r="V10" s="67"/>
       <c r="W10" s="67"/>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="15.6">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="84">
         <v>43086</v>
       </c>
@@ -5870,7 +5863,7 @@
       <c r="V11" s="67"/>
       <c r="W11" s="67"/>
     </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="15.6">
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="84">
         <v>43101</v>
       </c>
@@ -5907,7 +5900,7 @@
       <c r="V12" s="66"/>
       <c r="W12" s="66"/>
     </row>
-    <row r="13" spans="1:23" s="66" customFormat="1" ht="15.6">
+    <row r="13" spans="1:23" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="84">
         <v>43149</v>
       </c>
@@ -5929,7 +5922,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
     </row>
-    <row r="14" spans="1:23" ht="15.6">
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="87" t="s">
         <v>5</v>
       </c>
@@ -5971,7 +5964,7 @@
       <c r="V14" s="66"/>
       <c r="W14" s="66"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -5995,7 +5988,7 @@
       <c r="V15" s="66"/>
       <c r="W15" s="66"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="68" t="s">
         <v>6</v>
       </c>
@@ -6021,7 +6014,7 @@
       <c r="V16" s="66"/>
       <c r="W16" s="66"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="66" t="s">
         <v>7</v>
       </c>
@@ -6034,7 +6027,7 @@
       <c r="I17" s="67"/>
       <c r="J17" s="66"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="66" t="s">
         <v>8</v>
       </c>
@@ -6047,7 +6040,7 @@
       <c r="I18" s="67"/>
       <c r="J18" s="66"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="66" t="s">
         <v>9</v>
       </c>
@@ -6060,7 +6053,7 @@
       <c r="I19" s="67"/>
       <c r="J19" s="66"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -6071,7 +6064,7 @@
       <c r="I20" s="67"/>
       <c r="J20" s="66"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
@@ -6082,7 +6075,7 @@
       <c r="I21" s="67"/>
       <c r="J21" s="66"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -6093,7 +6086,7 @@
       <c r="I22" s="67"/>
       <c r="J22" s="66"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
@@ -6104,7 +6097,7 @@
       <c r="I23" s="67"/>
       <c r="J23" s="66"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
@@ -6115,7 +6108,7 @@
       <c r="I24" s="67"/>
       <c r="J24" s="66"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
@@ -6126,7 +6119,7 @@
       <c r="I25" s="67"/>
       <c r="J25" s="66"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -6137,7 +6130,7 @@
       <c r="I26" s="67"/>
       <c r="J26" s="66"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
@@ -6148,7 +6141,7 @@
       <c r="I27" s="67"/>
       <c r="J27" s="66"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
@@ -6159,7 +6152,7 @@
       <c r="I28" s="67"/>
       <c r="J28" s="66"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -6170,7 +6163,7 @@
       <c r="I29" s="67"/>
       <c r="J29" s="66"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
@@ -6181,7 +6174,7 @@
       <c r="I30" s="67"/>
       <c r="J30" s="66"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -6202,64 +6195,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A10" sqref="A10:X11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="66" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="66" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" style="66" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="4" customWidth="1"/>
-    <col min="17" max="22" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="38.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="66" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" style="66" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" style="66" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="4" customWidth="1"/>
+    <col min="17" max="22" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="38.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="4"/>
+    <col min="61" max="61" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="26.45" thickBot="1">
+    <row r="1" spans="1:65" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66"/>
       <c r="B1" s="79">
         <v>43149</v>
@@ -6450,7 +6443,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="21.6" thickBot="1">
+    <row r="2" spans="1:65" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -6521,7 +6514,7 @@
       <c r="BL2" s="66"/>
       <c r="BM2" s="66"/>
     </row>
-    <row r="3" spans="1:65" ht="15.95" thickBot="1">
+    <row r="3" spans="1:65" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
@@ -6716,7 +6709,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="15.95" thickBot="1">
+    <row r="4" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>13</v>
       </c>
@@ -6911,7 +6904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="15.95" thickBot="1">
+    <row r="5" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="99"/>
       <c r="B5" s="73">
         <v>0.623</v>
@@ -7104,7 +7097,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="15.95" thickBot="1">
+    <row r="6" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>15</v>
       </c>
@@ -7299,7 +7292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="15.95" thickBot="1">
+    <row r="7" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102"/>
       <c r="B7" s="20">
         <v>0.186</v>
@@ -7491,7 +7484,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="15.95" thickBot="1">
+    <row r="8" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>17</v>
       </c>
@@ -7686,7 +7679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.95" thickBot="1">
+    <row r="9" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="102"/>
       <c r="B9" s="20">
         <v>0.191</v>
@@ -7878,7 +7871,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="15.95" thickBot="1">
+    <row r="10" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91"/>
       <c r="B10" s="92"/>
       <c r="C10" s="92"/>
@@ -8025,7 +8018,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="15.95" thickBot="1">
+    <row r="11" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
       <c r="B11" s="95"/>
       <c r="C11" s="95"/>
@@ -8171,7 +8164,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="15.95" thickBot="1">
+    <row r="12" spans="1:65" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>20</v>
       </c>
@@ -8320,7 +8313,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="15.95" thickBot="1">
+    <row r="13" spans="1:65" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
         <v>22</v>
       </c>
@@ -8517,7 +8510,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="15.95" thickBot="1">
+    <row r="14" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -8583,7 +8576,7 @@
       <c r="BL14" s="66"/>
       <c r="BM14" s="66"/>
     </row>
-    <row r="15" spans="1:65" ht="21.6" thickBot="1">
+    <row r="15" spans="1:65" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>23</v>
       </c>
@@ -8654,7 +8647,7 @@
       <c r="BL15" s="28"/>
       <c r="BM15" s="29"/>
     </row>
-    <row r="16" spans="1:65" ht="15.95" thickBot="1">
+    <row r="16" spans="1:65" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>22</v>
       </c>
@@ -8849,7 +8842,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:65" ht="15.95" thickBot="1">
+    <row r="17" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
@@ -8916,7 +8909,7 @@
       <c r="BL17" s="34"/>
       <c r="BM17" s="34"/>
     </row>
-    <row r="18" spans="1:65" ht="21.6" thickBot="1">
+    <row r="18" spans="1:65" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>24</v>
       </c>
@@ -8987,7 +8980,7 @@
       <c r="BL18" s="28"/>
       <c r="BM18" s="29"/>
     </row>
-    <row r="19" spans="1:65" ht="15.95" thickBot="1">
+    <row r="19" spans="1:65" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
         <v>22</v>
       </c>
@@ -9182,7 +9175,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="20" spans="1:65" ht="15.95" thickBot="1">
+    <row r="20" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
@@ -9249,7 +9242,7 @@
       <c r="BL20" s="66"/>
       <c r="BM20" s="66"/>
     </row>
-    <row r="21" spans="1:65" ht="20.45" thickBot="1">
+    <row r="21" spans="1:65" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -9318,7 +9311,7 @@
       <c r="BL21" s="28"/>
       <c r="BM21" s="29"/>
     </row>
-    <row r="22" spans="1:65" ht="15.95" thickBot="1">
+    <row r="22" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -9465,7 +9458,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:65">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
@@ -9532,7 +9525,7 @@
       <c r="BL23" s="66"/>
       <c r="BM23" s="66"/>
     </row>
-    <row r="24" spans="1:65">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9599,7 +9592,7 @@
       <c r="BL24" s="66"/>
       <c r="BM24" s="66"/>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -9665,7 +9658,7 @@
       <c r="BL25" s="66"/>
       <c r="BM25" s="66"/>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
       <c r="P26" s="66"/>
       <c r="Q26" s="66"/>
@@ -9717,7 +9710,7 @@
       <c r="BL26" s="66"/>
       <c r="BM26" s="66"/>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
       <c r="P27" s="66"/>
       <c r="Q27" s="66"/>
@@ -9790,21 +9783,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E627"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="66"/>
+    <col min="1" max="1" width="10.83203125" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="83" t="s">
         <v>26</v>
       </c>
@@ -9817,7 +9810,7 @@
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
         <v>43101.1340277778</v>
       </c>
@@ -9828,7 +9821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="70">
         <v>43101.84375</v>
       </c>
@@ -9839,7 +9832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="70">
         <v>43102.593055555597</v>
       </c>
@@ -9850,7 +9843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="70">
         <v>43102.597222222197</v>
       </c>
@@ -9861,7 +9854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="70">
         <v>43102.601388888899</v>
       </c>
@@ -9872,7 +9865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="70">
         <v>43102.624305555597</v>
       </c>
@@ -9883,7 +9876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="70">
         <v>43102.712500000001</v>
       </c>
@@ -9894,7 +9887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="70">
         <v>43102.717361111099</v>
       </c>
@@ -9905,7 +9898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="70">
         <v>43102.755555555603</v>
       </c>
@@ -9916,7 +9909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="70">
         <v>43102.796527777798</v>
       </c>
@@ -9927,7 +9920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="70">
         <v>43103.072916666701</v>
       </c>
@@ -9938,7 +9931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="70">
         <v>43103.320138888899</v>
       </c>
@@ -9949,7 +9942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="70">
         <v>43103.328472222202</v>
       </c>
@@ -9960,7 +9953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="70">
         <v>43103.395833333299</v>
       </c>
@@ -9968,7 +9961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="70">
         <v>43103.425000000003</v>
       </c>
@@ -9979,7 +9972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="70">
         <v>43103.538194444402</v>
       </c>
@@ -9990,7 +9983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="70">
         <v>43103.6652777778</v>
       </c>
@@ -10001,7 +9994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="70">
         <v>43103.729166666701</v>
       </c>
@@ -10012,7 +10005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="70">
         <v>43103.731249999997</v>
       </c>
@@ -10023,7 +10016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="70">
         <v>43103.7319444444</v>
       </c>
@@ -10034,7 +10027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="70">
         <v>43103.734722222202</v>
       </c>
@@ -10045,7 +10038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="70">
         <v>43103.746527777803</v>
       </c>
@@ -10056,7 +10049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="70">
         <v>43103.7944444444</v>
       </c>
@@ -10067,7 +10060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="70">
         <v>43103.912499999999</v>
       </c>
@@ -10078,7 +10071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="70">
         <v>43104.138888888898</v>
       </c>
@@ -10089,7 +10082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="70">
         <v>43104.359027777798</v>
       </c>
@@ -10100,7 +10093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="70">
         <v>43104.380555555603</v>
       </c>
@@ -10111,7 +10104,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="70">
         <v>43104.448611111096</v>
       </c>
@@ -10122,7 +10115,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="70">
         <v>43104.472916666702</v>
       </c>
@@ -10133,7 +10126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="70">
         <v>43104.699305555601</v>
       </c>
@@ -10144,7 +10137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="70">
         <v>43104.739583333299</v>
       </c>
@@ -10155,7 +10148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="70">
         <v>43104.761111111096</v>
       </c>
@@ -10166,7 +10159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="70">
         <v>43105.440277777801</v>
       </c>
@@ -10177,7 +10170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="70">
         <v>43105.493055555598</v>
       </c>
@@ -10188,7 +10181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="70">
         <v>43105.505555555603</v>
       </c>
@@ -10199,7 +10192,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="70">
         <v>43105.521527777797</v>
       </c>
@@ -10210,7 +10203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="70">
         <v>43105.561805555597</v>
       </c>
@@ -10221,7 +10214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="70">
         <v>43105.564583333296</v>
       </c>
@@ -10232,7 +10225,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="70">
         <v>43105.565972222197</v>
       </c>
@@ -10243,7 +10236,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="70">
         <v>43105.570833333302</v>
       </c>
@@ -10254,7 +10247,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="70">
         <v>43105.576388888898</v>
       </c>
@@ -10265,7 +10258,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="70">
         <v>43105.594444444403</v>
       </c>
@@ -10276,7 +10269,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="70">
         <v>43105.625694444403</v>
       </c>
@@ -10287,7 +10280,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="70">
         <v>43105.6430555556</v>
       </c>
@@ -10298,7 +10291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="70">
         <v>43105.663888888899</v>
       </c>
@@ -10309,7 +10302,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="70">
         <v>43105.664583333302</v>
       </c>
@@ -10320,7 +10313,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="70">
         <v>43105.668749999997</v>
       </c>
@@ -10331,7 +10324,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="70">
         <v>43105.722222222197</v>
       </c>
@@ -10342,7 +10335,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="70">
         <v>43105.820833333302</v>
       </c>
@@ -10353,7 +10346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="70">
         <v>43105.844444444403</v>
       </c>
@@ -10364,7 +10357,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="70">
         <v>43106.3215277778</v>
       </c>
@@ -10375,7 +10368,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="70">
         <v>43106.331944444399</v>
       </c>
@@ -10386,7 +10379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="70">
         <v>43106.342361111099</v>
       </c>
@@ -10397,7 +10390,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="70">
         <v>43106.381944444402</v>
       </c>
@@ -10408,7 +10401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="70">
         <v>43106.384722222203</v>
       </c>
@@ -10419,7 +10412,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="70">
         <v>43106.464583333298</v>
       </c>
@@ -10430,7 +10423,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="70">
         <v>43106.635416666701</v>
       </c>
@@ -10441,7 +10434,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="70">
         <v>43107.464583333298</v>
       </c>
@@ -10452,7 +10445,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="70">
         <v>43107.583333333299</v>
       </c>
@@ -10463,7 +10456,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="70">
         <v>43107.6340277778</v>
       </c>
@@ -10474,7 +10467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="70">
         <v>43107.875</v>
       </c>
@@ -10485,7 +10478,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="70">
         <v>43108.645138888904</v>
       </c>
@@ -10496,7 +10489,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="70">
         <v>43108.704861111102</v>
       </c>
@@ -10507,7 +10500,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="70">
         <v>43108.762499999997</v>
       </c>
@@ -10518,7 +10511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="70">
         <v>43108.813888888901</v>
       </c>
@@ -10529,7 +10522,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="70">
         <v>43108.823611111096</v>
       </c>
@@ -10540,7 +10533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="70">
         <v>43108.85</v>
       </c>
@@ -10551,7 +10544,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="70">
         <v>43108.864583333299</v>
       </c>
@@ -10562,7 +10555,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="70">
         <v>43108.904861111099</v>
       </c>
@@ -10573,7 +10566,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="70">
         <v>43108.913888888899</v>
       </c>
@@ -10584,7 +10577,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="70">
         <v>43108.931944444397</v>
       </c>
@@ -10595,7 +10588,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="70">
         <v>43109.252083333296</v>
       </c>
@@ -10606,7 +10599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="70">
         <v>43109.347222222197</v>
       </c>
@@ -10617,7 +10610,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="70">
         <v>43109.484027777798</v>
       </c>
@@ -10628,7 +10621,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="70">
         <v>43109.596527777801</v>
       </c>
@@ -10639,7 +10632,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="70">
         <v>43109.597916666702</v>
       </c>
@@ -10650,7 +10643,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="70">
         <v>43109.601388888899</v>
       </c>
@@ -10661,7 +10654,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="70">
         <v>43109.6875</v>
       </c>
@@ -10672,7 +10665,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="70">
         <v>43109.692361111098</v>
       </c>
@@ -10683,7 +10676,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="70">
         <v>43109.693749999999</v>
       </c>
@@ -10694,7 +10687,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="70">
         <v>43109.695833333302</v>
       </c>
@@ -10705,7 +10698,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="70">
         <v>43109.828472222202</v>
       </c>
@@ -10716,7 +10709,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="70">
         <v>43109.840972222199</v>
       </c>
@@ -10727,7 +10720,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="70">
         <v>43109.856249999997</v>
       </c>
@@ -10738,7 +10731,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="70">
         <v>43109.860416666699</v>
       </c>
@@ -10749,7 +10742,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="70">
         <v>43109.863194444399</v>
       </c>
@@ -10760,7 +10753,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="70">
         <v>43110.016666666699</v>
       </c>
@@ -10771,7 +10764,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="70">
         <v>43110.034722222197</v>
       </c>
@@ -10782,7 +10775,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="70">
         <v>43110.454861111102</v>
       </c>
@@ -10793,7 +10786,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="70">
         <v>43110.596527777801</v>
       </c>
@@ -10804,7 +10797,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="70">
         <v>43110.597222222197</v>
       </c>
@@ -10815,7 +10808,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="70">
         <v>43110.618750000001</v>
       </c>
@@ -10826,7 +10819,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="70">
         <v>43110.681944444397</v>
       </c>
@@ -10837,7 +10830,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="70">
         <v>43110.712500000001</v>
       </c>
@@ -10848,7 +10841,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="70">
         <v>43110.769444444399</v>
       </c>
@@ -10859,7 +10852,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="70">
         <v>43110.776388888902</v>
       </c>
@@ -10870,7 +10863,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="70">
         <v>43110.7902777778</v>
       </c>
@@ -10881,7 +10874,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="70">
         <v>43110.926388888904</v>
       </c>
@@ -10892,7 +10885,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="70">
         <v>43110.940277777801</v>
       </c>
@@ -10903,7 +10896,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="70">
         <v>43111.395833333299</v>
       </c>
@@ -10914,7 +10907,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="70">
         <v>43111.474999999999</v>
       </c>
@@ -10925,7 +10918,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="70">
         <v>43111.683333333298</v>
       </c>
@@ -10936,7 +10929,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="70">
         <v>43111.706250000003</v>
       </c>
@@ -10947,7 +10940,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="70">
         <v>43111.783333333296</v>
       </c>
@@ -10958,7 +10951,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="70">
         <v>43111.927777777797</v>
       </c>
@@ -10969,7 +10962,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="70">
         <v>43112.427777777797</v>
       </c>
@@ -10980,7 +10973,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="70">
         <v>43112.465277777803</v>
       </c>
@@ -10991,7 +10984,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="70">
         <v>43112.7631944444</v>
       </c>
@@ -11002,7 +10995,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="70">
         <v>43112.793749999997</v>
       </c>
@@ -11013,7 +11006,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="70">
         <v>43112.826388888898</v>
       </c>
@@ -11024,7 +11017,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="70">
         <v>43113.220833333296</v>
       </c>
@@ -11035,7 +11028,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="70">
         <v>43113.35</v>
       </c>
@@ -11046,7 +11039,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="70">
         <v>43113.351388888899</v>
       </c>
@@ -11057,7 +11050,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="70">
         <v>43113.438194444403</v>
       </c>
@@ -11068,7 +11061,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="70">
         <v>43113.710416666698</v>
       </c>
@@ -11079,7 +11072,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="70">
         <v>43114.392361111102</v>
       </c>
@@ -11090,7 +11083,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="70">
         <v>43115.298611111102</v>
       </c>
@@ -11101,7 +11094,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="70">
         <v>43115.4243055556</v>
       </c>
@@ -11112,7 +11105,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="70">
         <v>43115.670138888898</v>
       </c>
@@ -11123,7 +11116,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="70">
         <v>43115.673611111102</v>
       </c>
@@ -11134,7 +11127,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="70">
         <v>43115.680555555598</v>
       </c>
@@ -11142,7 +11135,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="70">
         <v>43115.690277777801</v>
       </c>
@@ -11153,7 +11146,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="70">
         <v>43115.7</v>
       </c>
@@ -11164,7 +11157,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="70">
         <v>43115.715972222199</v>
       </c>
@@ -11175,7 +11168,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="70">
         <v>43115.751388888901</v>
       </c>
@@ -11186,7 +11179,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="70">
         <v>43115.815277777801</v>
       </c>
@@ -11197,7 +11190,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="70">
         <v>43115.831944444399</v>
       </c>
@@ -11208,7 +11201,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="70">
         <v>43115.914583333302</v>
       </c>
@@ -11219,7 +11212,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="70">
         <v>43116.2722222222</v>
       </c>
@@ -11230,7 +11223,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="70">
         <v>43116.359722222202</v>
       </c>
@@ -11241,7 +11234,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="70">
         <v>43116.404166666704</v>
       </c>
@@ -11252,7 +11245,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="70">
         <v>43116.4597222222</v>
       </c>
@@ -11263,7 +11256,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="70">
         <v>43116.465277777803</v>
       </c>
@@ -11274,7 +11267,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="70">
         <v>43116.508333333302</v>
       </c>
@@ -11285,7 +11278,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="70">
         <v>43116.618055555598</v>
       </c>
@@ -11296,7 +11289,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="70">
         <v>43116.624305555597</v>
       </c>
@@ -11307,7 +11300,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="70">
         <v>43116.631249999999</v>
       </c>
@@ -11318,7 +11311,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="70">
         <v>43116.631944444402</v>
       </c>
@@ -11329,7 +11322,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="70">
         <v>43116.636805555601</v>
       </c>
@@ -11340,7 +11333,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="70">
         <v>43116.704166666699</v>
       </c>
@@ -11351,7 +11344,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="70">
         <v>43116.726388888899</v>
       </c>
@@ -11362,7 +11355,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="70">
         <v>43116.732638888898</v>
       </c>
@@ -11373,7 +11366,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="70">
         <v>43116.745833333298</v>
       </c>
@@ -11384,7 +11377,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="70">
         <v>43116.75</v>
       </c>
@@ -11395,7 +11388,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="70">
         <v>43116.755555555603</v>
       </c>
@@ -11406,7 +11399,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="70">
         <v>43116.765972222202</v>
       </c>
@@ -11417,7 +11410,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="70">
         <v>43116.777083333298</v>
       </c>
@@ -11428,7 +11421,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="70">
         <v>43116.785416666702</v>
       </c>
@@ -11439,7 +11432,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="70">
         <v>43116.7902777778</v>
       </c>
@@ -11450,7 +11443,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="70">
         <v>43116.864583333299</v>
       </c>
@@ -11461,7 +11454,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="70">
         <v>43116.9909722222</v>
       </c>
@@ -11472,7 +11465,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="70">
         <v>43117.056944444397</v>
       </c>
@@ -11483,7 +11476,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="70">
         <v>43117.279166666704</v>
       </c>
@@ -11494,7 +11487,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="70">
         <v>43117.3305555556</v>
       </c>
@@ -11505,7 +11498,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="70">
         <v>43117.538888888899</v>
       </c>
@@ -11516,7 +11509,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="70">
         <v>43117.617361111101</v>
       </c>
@@ -11527,7 +11520,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="70">
         <v>43117.627083333296</v>
       </c>
@@ -11538,7 +11531,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="70">
         <v>43117.664583333302</v>
       </c>
@@ -11549,7 +11542,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="70">
         <v>43117.6743055556</v>
       </c>
@@ -11560,7 +11553,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="70">
         <v>43117.681250000001</v>
       </c>
@@ -11571,7 +11564,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="70">
         <v>43117.681250000001</v>
       </c>
@@ -11582,7 +11575,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="70">
         <v>43117.711805555598</v>
       </c>
@@ -11593,7 +11586,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="70">
         <v>43117.721527777801</v>
       </c>
@@ -11604,7 +11597,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="70">
         <v>43117.744444444397</v>
       </c>
@@ -11615,7 +11608,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="70">
         <v>43117.793055555601</v>
       </c>
@@ -11626,7 +11619,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="70">
         <v>43117.815277777801</v>
       </c>
@@ -11637,7 +11630,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="70">
         <v>43117.870138888902</v>
       </c>
@@ -11645,7 +11638,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="70">
         <v>43117.913194444402</v>
       </c>
@@ -11656,7 +11649,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="70">
         <v>43118.147916666698</v>
       </c>
@@ -11667,7 +11660,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="70">
         <v>43118.427083333299</v>
       </c>
@@ -11678,7 +11671,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="70">
         <v>43118.438888888901</v>
       </c>
@@ -11689,7 +11682,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="70">
         <v>43118.595138888901</v>
       </c>
@@ -11700,7 +11693,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="70">
         <v>43118.6118055556</v>
       </c>
@@ -11711,7 +11704,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="70">
         <v>43118.616666666698</v>
       </c>
@@ -11722,7 +11715,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="70">
         <v>43118.620833333298</v>
       </c>
@@ -11733,7 +11726,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="70">
         <v>43118.639583333301</v>
       </c>
@@ -11744,7 +11737,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="70">
         <v>43118.640972222202</v>
       </c>
@@ -11755,7 +11748,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="70">
         <v>43118.671527777798</v>
       </c>
@@ -11766,7 +11759,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="70">
         <v>43118.677777777797</v>
       </c>
@@ -11777,7 +11770,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="70">
         <v>43118.686111111099</v>
       </c>
@@ -11788,7 +11781,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="70">
         <v>43118.686805555597</v>
       </c>
@@ -11799,7 +11792,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="70">
         <v>43118.695833333302</v>
       </c>
@@ -11810,7 +11803,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="70">
         <v>43118.711111111101</v>
       </c>
@@ -11821,7 +11814,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="70">
         <v>43118.772916666698</v>
       </c>
@@ -11832,7 +11825,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="70">
         <v>43118.798611111102</v>
       </c>
@@ -11843,7 +11836,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="70">
         <v>43118.827777777798</v>
       </c>
@@ -11854,7 +11847,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="70">
         <v>43118.893750000003</v>
       </c>
@@ -11865,7 +11858,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="70">
         <v>43118.997916666704</v>
       </c>
@@ -11876,7 +11869,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="70">
         <v>43119.485416666699</v>
       </c>
@@ -11887,7 +11880,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="70">
         <v>43119.692361111098</v>
       </c>
@@ -11898,7 +11891,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="70">
         <v>43119.724999999999</v>
       </c>
@@ -11909,7 +11902,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="70">
         <v>43119.731249999997</v>
       </c>
@@ -11920,7 +11913,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="70">
         <v>43119.815972222197</v>
       </c>
@@ -11931,7 +11924,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="70">
         <v>43119.864583333299</v>
       </c>
@@ -11942,7 +11935,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="70">
         <v>43120.290972222203</v>
       </c>
@@ -11953,7 +11946,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="70">
         <v>43120.295138888898</v>
       </c>
@@ -11964,7 +11957,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="70">
         <v>43120.448611111096</v>
       </c>
@@ -11975,7 +11968,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="70">
         <v>43120.574999999997</v>
       </c>
@@ -11986,7 +11979,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="70">
         <v>43120.5756944444</v>
       </c>
@@ -11997,7 +11990,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="70">
         <v>43120.976388888899</v>
       </c>
@@ -12008,7 +12001,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="70">
         <v>43121.5090277778</v>
       </c>
@@ -12019,7 +12012,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="70">
         <v>43121.750694444403</v>
       </c>
@@ -12030,7 +12023,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="70">
         <v>43122.640277777798</v>
       </c>
@@ -12041,7 +12034,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="70">
         <v>43122.6430555556</v>
       </c>
@@ -12052,7 +12045,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="70">
         <v>43122.6430555556</v>
       </c>
@@ -12063,7 +12056,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="70">
         <v>43122.657638888901</v>
       </c>
@@ -12071,7 +12064,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="70">
         <v>43122.703472222202</v>
       </c>
@@ -12082,7 +12075,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="70">
         <v>43122.706944444399</v>
       </c>
@@ -12093,7 +12086,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="70">
         <v>43122.713888888902</v>
       </c>
@@ -12104,7 +12097,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="70">
         <v>43122.713888888902</v>
       </c>
@@ -12115,7 +12108,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="70">
         <v>43122.724305555603</v>
       </c>
@@ -12126,7 +12119,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="70">
         <v>43122.764583333301</v>
       </c>
@@ -12137,7 +12130,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="70">
         <v>43122.813888888901</v>
       </c>
@@ -12148,7 +12141,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="70">
         <v>43122.869444444397</v>
       </c>
@@ -12159,7 +12152,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="70">
         <v>43122.893750000003</v>
       </c>
@@ -12170,7 +12163,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="70">
         <v>43123.079861111102</v>
       </c>
@@ -12181,7 +12174,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="70">
         <v>43123.282638888901</v>
       </c>
@@ -12192,7 +12185,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="70">
         <v>43123.359027777798</v>
       </c>
@@ -12203,7 +12196,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="70">
         <v>43123.4243055556</v>
       </c>
@@ -12214,7 +12207,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="70">
         <v>43123.481249999997</v>
       </c>
@@ -12225,7 +12218,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="70">
         <v>43123.570138888899</v>
       </c>
@@ -12236,7 +12229,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="70">
         <v>43123.606249999997</v>
       </c>
@@ -12247,7 +12240,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="70">
         <v>43123.618750000001</v>
       </c>
@@ -12258,7 +12251,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="70">
         <v>43123.636805555601</v>
       </c>
@@ -12269,7 +12262,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="70">
         <v>43123.647916666698</v>
       </c>
@@ -12280,7 +12273,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="70">
         <v>43123.670833333301</v>
       </c>
@@ -12291,7 +12284,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="70">
         <v>43123.693055555603</v>
       </c>
@@ -12302,7 +12295,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="70">
         <v>43123.7097222222</v>
       </c>
@@ -12313,7 +12306,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="70">
         <v>43123.7368055556</v>
       </c>
@@ -12324,7 +12317,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="70">
         <v>43123.771527777797</v>
       </c>
@@ -12335,7 +12328,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="70">
         <v>43123.778472222199</v>
       </c>
@@ -12346,7 +12339,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="70">
         <v>43123.778472222199</v>
       </c>
@@ -12357,7 +12350,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="70">
         <v>43123.785416666702</v>
       </c>
@@ -12368,7 +12361,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="70">
         <v>43123.802083333299</v>
       </c>
@@ -12379,7 +12372,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="70">
         <v>43124.28125</v>
       </c>
@@ -12390,7 +12383,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="70">
         <v>43124.399305555598</v>
       </c>
@@ -12401,7 +12394,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="70">
         <v>43124.5444444444</v>
       </c>
@@ -12412,7 +12405,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="70">
         <v>43124.564583333296</v>
       </c>
@@ -12423,7 +12416,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="70">
         <v>43124.593055555597</v>
       </c>
@@ -12434,7 +12427,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="70">
         <v>43124.602083333302</v>
       </c>
@@ -12445,7 +12438,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="70">
         <v>43124.6875</v>
       </c>
@@ -12456,7 +12449,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="70">
         <v>43124.688888888901</v>
       </c>
@@ -12467,7 +12460,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="70">
         <v>43124.7006944444</v>
       </c>
@@ -12478,7 +12471,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="70">
         <v>43124.713194444397</v>
       </c>
@@ -12489,7 +12482,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="70">
         <v>43124.720138888901</v>
       </c>
@@ -12500,7 +12493,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="70">
         <v>43124.766666666699</v>
       </c>
@@ -12511,7 +12504,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="70">
         <v>43124.768750000003</v>
       </c>
@@ -12522,7 +12515,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="70">
         <v>43124.8215277778</v>
       </c>
@@ -12533,7 +12526,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="70">
         <v>43124.839583333298</v>
       </c>
@@ -12544,7 +12537,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="70">
         <v>43124.852083333302</v>
       </c>
@@ -12555,7 +12548,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="70">
         <v>43124.901388888902</v>
       </c>
@@ -12566,7 +12559,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="70">
         <v>43124.926388888904</v>
       </c>
@@ -12577,7 +12570,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="70">
         <v>43125.05</v>
       </c>
@@ -12588,7 +12581,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="70">
         <v>43125.245138888902</v>
       </c>
@@ -12599,7 +12592,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="70">
         <v>43125.319444444402</v>
       </c>
@@ -12610,7 +12603,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="70">
         <v>43125.627777777801</v>
       </c>
@@ -12621,7 +12614,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="70">
         <v>43125.683333333298</v>
       </c>
@@ -12632,7 +12625,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="70">
         <v>43125.718055555597</v>
       </c>
@@ -12643,7 +12636,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="70">
         <v>43125.720138888901</v>
       </c>
@@ -12654,7 +12647,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="70">
         <v>43125.761111111096</v>
       </c>
@@ -12665,7 +12658,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="70">
         <v>43125.792361111096</v>
       </c>
@@ -12676,7 +12669,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="70">
         <v>43125.797222222202</v>
       </c>
@@ -12687,7 +12680,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="70">
         <v>43125.804166666698</v>
       </c>
@@ -12698,7 +12691,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="70">
         <v>43125.806944444397</v>
       </c>
@@ -12709,7 +12702,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="70">
         <v>43125.827083333301</v>
       </c>
@@ -12720,7 +12713,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="70">
         <v>43125.959027777797</v>
       </c>
@@ -12731,7 +12724,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="70">
         <v>43125.964583333298</v>
       </c>
@@ -12742,7 +12735,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="70">
         <v>43126.657638888901</v>
       </c>
@@ -12753,7 +12746,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="70">
         <v>43126.670833333301</v>
       </c>
@@ -12764,7 +12757,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="70">
         <v>43126.717361111099</v>
       </c>
@@ -12775,7 +12768,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="70">
         <v>43126.835416666698</v>
       </c>
@@ -12786,7 +12779,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="70">
         <v>43126.853472222203</v>
       </c>
@@ -12797,7 +12790,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="70">
         <v>43126.882638888899</v>
       </c>
@@ -12808,7 +12801,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="70">
         <v>43126.902083333298</v>
       </c>
@@ -12819,7 +12812,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="70">
         <v>43126.959027777797</v>
       </c>
@@ -12830,7 +12823,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="70">
         <v>43127.440277777801</v>
       </c>
@@ -12841,7 +12834,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="70">
         <v>43127.477083333302</v>
       </c>
@@ -12852,7 +12845,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="70">
         <v>43127.714583333298</v>
       </c>
@@ -12863,7 +12856,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="70">
         <v>43127.945138888899</v>
       </c>
@@ -12874,7 +12867,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="70">
         <v>43128.162499999999</v>
       </c>
@@ -12882,7 +12875,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="70">
         <v>43128.338194444397</v>
       </c>
@@ -12890,7 +12883,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="70">
         <v>43128.576388888898</v>
       </c>
@@ -12901,7 +12894,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="70">
         <v>43128.6</v>
       </c>
@@ -12912,7 +12905,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="70">
         <v>43128.668055555601</v>
       </c>
@@ -12923,7 +12916,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="70">
         <v>43128.8527777778</v>
       </c>
@@ -12934,7 +12927,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="70">
         <v>43129.315972222197</v>
       </c>
@@ -12945,7 +12938,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="70">
         <v>43129.373611111099</v>
       </c>
@@ -12956,7 +12949,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="70">
         <v>43129.413194444402</v>
       </c>
@@ -12967,7 +12960,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="70">
         <v>43129.632638888899</v>
       </c>
@@ -12978,7 +12971,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="70">
         <v>43129.632638888899</v>
       </c>
@@ -12989,7 +12982,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="70">
         <v>43129.640277777798</v>
       </c>
@@ -13000,7 +12993,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="70">
         <v>43129.677083333299</v>
       </c>
@@ -13011,7 +13004,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="70">
         <v>43129.683333333298</v>
       </c>
@@ -13022,7 +13015,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="70">
         <v>43129.6875</v>
       </c>
@@ -13033,7 +13026,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="70">
         <v>43129.688194444403</v>
       </c>
@@ -13044,7 +13037,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="70">
         <v>43129.7055555556</v>
       </c>
@@ -13055,7 +13048,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="70">
         <v>43129.713888888902</v>
       </c>
@@ -13066,7 +13059,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="70">
         <v>43129.725694444402</v>
       </c>
@@ -13077,7 +13070,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="70">
         <v>43129.753472222197</v>
       </c>
@@ -13088,7 +13081,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="70">
         <v>43129.785416666702</v>
       </c>
@@ -13096,7 +13089,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="70">
         <v>43129.802777777797</v>
       </c>
@@ -13107,7 +13100,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="70">
         <v>43129.806250000001</v>
       </c>
@@ -13118,7 +13111,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="70">
         <v>43129.818749999999</v>
       </c>
@@ -13129,7 +13122,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="70">
         <v>43129.846527777801</v>
       </c>
@@ -13140,7 +13133,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="70">
         <v>43129.936111111099</v>
       </c>
@@ -13151,7 +13144,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="70">
         <v>43130.346527777801</v>
       </c>
@@ -13162,7 +13155,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="70">
         <v>43130.405555555597</v>
       </c>
@@ -13173,7 +13166,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="70">
         <v>43130.436805555597</v>
       </c>
@@ -13184,7 +13177,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="70">
         <v>43130.458333333299</v>
       </c>
@@ -13195,7 +13188,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="70">
         <v>43130.488888888904</v>
       </c>
@@ -13206,7 +13199,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="70">
         <v>43130.496527777803</v>
       </c>
@@ -13217,7 +13210,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="70">
         <v>43130.557638888902</v>
       </c>
@@ -13228,7 +13221,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="70">
         <v>43130.570833333302</v>
       </c>
@@ -13239,7 +13232,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="70">
         <v>43130.5847222222</v>
       </c>
@@ -13250,7 +13243,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="70">
         <v>43130.585416666698</v>
       </c>
@@ -13261,7 +13254,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="70">
         <v>43130.591666666704</v>
       </c>
@@ -13272,7 +13265,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="70">
         <v>43130.601388888899</v>
       </c>
@@ -13283,7 +13276,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="70">
         <v>43130.6069444444</v>
       </c>
@@ -13294,7 +13287,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="70">
         <v>43130.610416666699</v>
       </c>
@@ -13305,7 +13298,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="70">
         <v>43130.618750000001</v>
       </c>
@@ -13316,7 +13309,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="70">
         <v>43130.625694444403</v>
       </c>
@@ -13327,7 +13320,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="70">
         <v>43130.681250000001</v>
       </c>
@@ -13338,7 +13331,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="70">
         <v>43130.748611111099</v>
       </c>
@@ -13349,7 +13342,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="70">
         <v>43130.784027777801</v>
       </c>
@@ -13360,7 +13353,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="70">
         <v>43130.899305555598</v>
       </c>
@@ -13371,7 +13364,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="70">
         <v>43130.973611111098</v>
       </c>
@@ -13382,7 +13375,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="70">
         <v>43131.079166666699</v>
       </c>
@@ -13393,7 +13386,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="70">
         <v>43131.340277777803</v>
       </c>
@@ -13404,7 +13397,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="70">
         <v>43131.625</v>
       </c>
@@ -13415,7 +13408,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="70">
         <v>43131.652083333298</v>
       </c>
@@ -13426,7 +13419,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="70">
         <v>43131.654166666704</v>
       </c>
@@ -13437,7 +13430,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="70">
         <v>43131.855555555601</v>
       </c>
@@ -13448,7 +13441,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="70">
         <v>43132.2631944444</v>
       </c>
@@ -13459,7 +13452,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="70">
         <v>43132.300694444399</v>
       </c>
@@ -13467,7 +13460,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="70">
         <v>43132.335416666698</v>
       </c>
@@ -13478,7 +13471,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="70">
         <v>43132.364583333299</v>
       </c>
@@ -13489,7 +13482,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="70">
         <v>43132.5715277778</v>
       </c>
@@ -13500,7 +13493,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="70">
         <v>43132.5756944444</v>
       </c>
@@ -13511,7 +13504,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="70">
         <v>43132.7006944444</v>
       </c>
@@ -13522,7 +13515,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="70">
         <v>43132.706250000003</v>
       </c>
@@ -13533,7 +13526,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="70">
         <v>43132.878472222197</v>
       </c>
@@ -13544,7 +13537,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="70">
         <v>43132.902083333298</v>
       </c>
@@ -13555,7 +13548,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="70">
         <v>43133.291666666701</v>
       </c>
@@ -13566,7 +13559,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="70">
         <v>43133.337500000001</v>
       </c>
@@ -13577,7 +13570,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="70">
         <v>43133.582638888904</v>
       </c>
@@ -13585,7 +13578,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="70">
         <v>43133.640277777798</v>
       </c>
@@ -13596,7 +13589,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="70">
         <v>43133.640972222202</v>
       </c>
@@ -13607,7 +13600,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="70">
         <v>43133.695833333302</v>
       </c>
@@ -13618,7 +13611,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="70">
         <v>43133.720138888901</v>
       </c>
@@ -13629,7 +13622,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="70">
         <v>43133.8034722222</v>
       </c>
@@ -13640,7 +13633,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="70">
         <v>43134.002777777801</v>
       </c>
@@ -13651,7 +13644,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="70">
         <v>43134.078472222202</v>
       </c>
@@ -13662,7 +13655,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="70">
         <v>43134.508333333302</v>
       </c>
@@ -13673,7 +13666,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="70">
         <v>43134.568749999999</v>
       </c>
@@ -13684,7 +13677,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="70">
         <v>43134.679861111101</v>
       </c>
@@ -13695,7 +13688,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="70">
         <v>43134.841666666704</v>
       </c>
@@ -13706,7 +13699,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="70">
         <v>43135.441666666702</v>
       </c>
@@ -13717,7 +13710,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="70">
         <v>43136.586111111101</v>
       </c>
@@ -13728,7 +13721,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="70">
         <v>43136.586805555598</v>
       </c>
@@ -13739,7 +13732,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="70">
         <v>43136.592361111099</v>
       </c>
@@ -13750,7 +13743,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="70">
         <v>43136.681250000001</v>
       </c>
@@ -13761,7 +13754,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="70">
         <v>43136.684027777803</v>
       </c>
@@ -13772,7 +13765,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="70">
         <v>43136.686111111099</v>
       </c>
@@ -13783,7 +13776,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="70">
         <v>43136.693055555603</v>
       </c>
@@ -13794,7 +13787,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="70">
         <v>43136.710416666698</v>
       </c>
@@ -13805,7 +13798,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="70">
         <v>43136.760416666701</v>
       </c>
@@ -13816,7 +13809,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="70">
         <v>43136.778472222199</v>
       </c>
@@ -13827,7 +13820,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="70">
         <v>43136.871527777803</v>
       </c>
@@ -13838,7 +13831,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="70">
         <v>43136.974305555603</v>
       </c>
@@ -13849,7 +13842,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="70">
         <v>43137.024305555598</v>
       </c>
@@ -13860,7 +13853,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="70">
         <v>43137.210416666698</v>
       </c>
@@ -13871,7 +13864,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="70">
         <v>43137.541666666701</v>
       </c>
@@ -13882,7 +13875,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="70">
         <v>43137.542361111096</v>
       </c>
@@ -13893,7 +13886,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="70">
         <v>43137.552777777797</v>
       </c>
@@ -13904,7 +13897,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="70">
         <v>43137.573611111096</v>
       </c>
@@ -13915,7 +13908,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="70">
         <v>43137.588194444397</v>
       </c>
@@ -13926,7 +13919,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="70">
         <v>43137.611111111102</v>
       </c>
@@ -13937,7 +13930,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="70">
         <v>43137.629166666702</v>
       </c>
@@ -13948,7 +13941,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="70">
         <v>43137.741666666698</v>
       </c>
@@ -13959,7 +13952,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="70">
         <v>43137.754166666702</v>
       </c>
@@ -13970,7 +13963,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="70">
         <v>43137.773611111101</v>
       </c>
@@ -13981,7 +13974,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="70">
         <v>43137.800694444399</v>
       </c>
@@ -13992,7 +13985,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="70">
         <v>43137.822916666701</v>
       </c>
@@ -14003,7 +13996,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="70">
         <v>43137.897916666698</v>
       </c>
@@ -14014,7 +14007,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="70">
         <v>43137.947916666701</v>
       </c>
@@ -14025,7 +14018,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="70">
         <v>43137.958333333299</v>
       </c>
@@ -14036,7 +14029,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="70">
         <v>43138.429166666698</v>
       </c>
@@ -14047,7 +14040,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="70">
         <v>43138.528472222199</v>
       </c>
@@ -14058,7 +14051,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="70">
         <v>43138.536805555603</v>
       </c>
@@ -14069,7 +14062,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="70">
         <v>43138.622916666704</v>
       </c>
@@ -14080,7 +14073,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="70">
         <v>43138.6875</v>
       </c>
@@ -14091,7 +14084,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="70">
         <v>43138.688194444403</v>
       </c>
@@ -14102,7 +14095,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="70">
         <v>43138.745138888902</v>
       </c>
@@ -14113,7 +14106,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="70">
         <v>43138.890277777798</v>
       </c>
@@ -14124,7 +14117,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="70">
         <v>43139.008333333302</v>
       </c>
@@ -14135,7 +14128,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="70">
         <v>43139.465277777803</v>
       </c>
@@ -14146,7 +14139,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="70">
         <v>43139.4909722222</v>
       </c>
@@ -14157,7 +14150,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="70">
         <v>43139.657638888901</v>
       </c>
@@ -14168,7 +14161,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="70">
         <v>43139.661111111098</v>
       </c>
@@ -14179,7 +14172,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="70">
         <v>43139.6694444444</v>
       </c>
@@ -14190,7 +14183,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="70">
         <v>43139.6694444444</v>
       </c>
@@ -14201,7 +14194,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="70">
         <v>43139.684722222199</v>
       </c>
@@ -14212,7 +14205,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="70">
         <v>43139.688194444403</v>
       </c>
@@ -14223,7 +14216,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="70">
         <v>43139.697222222203</v>
       </c>
@@ -14234,7 +14227,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="70">
         <v>43139.737500000003</v>
       </c>
@@ -14245,7 +14238,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="70">
         <v>43139.753472222197</v>
       </c>
@@ -14256,7 +14249,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="70">
         <v>43139.760416666701</v>
       </c>
@@ -14267,7 +14260,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="70">
         <v>43140.4819444444</v>
       </c>
@@ -14278,7 +14271,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="70">
         <v>43140.497916666704</v>
       </c>
@@ -14289,7 +14282,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="70">
         <v>43140.641666666699</v>
       </c>
@@ -14300,7 +14293,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="70">
         <v>43140.729166666701</v>
       </c>
@@ -14311,7 +14304,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="70">
         <v>43140.734722222202</v>
       </c>
@@ -14322,7 +14315,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="70">
         <v>43140.742361111101</v>
       </c>
@@ -14333,7 +14326,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="70">
         <v>43140.743055555598</v>
       </c>
@@ -14344,7 +14337,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="70">
         <v>43140.839583333298</v>
       </c>
@@ -14355,7 +14348,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="70">
         <v>43140.840277777803</v>
       </c>
@@ -14366,7 +14359,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="70">
         <v>43140.9777777778</v>
       </c>
@@ -14377,7 +14370,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="70">
         <v>43141.372222222199</v>
       </c>
@@ -14388,7 +14381,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="70">
         <v>43141.394444444399</v>
       </c>
@@ -14396,7 +14389,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="70">
         <v>43141.4152777778</v>
       </c>
@@ -14407,7 +14400,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="70">
         <v>43141.461805555598</v>
       </c>
@@ -14418,7 +14411,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="70">
         <v>43141.985416666699</v>
       </c>
@@ -14429,7 +14422,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="70">
         <v>43142.921527777798</v>
       </c>
@@ -14440,7 +14433,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="70">
         <v>43142.923611111102</v>
       </c>
@@ -14451,7 +14444,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="70">
         <v>43143.3659722222</v>
       </c>
@@ -14462,7 +14455,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="70">
         <v>43143.372916666704</v>
       </c>
@@ -14473,7 +14466,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="70">
         <v>43143.488888888904</v>
       </c>
@@ -14484,7 +14477,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="70">
         <v>43143.616666666698</v>
       </c>
@@ -14495,7 +14488,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="70">
         <v>43143.620833333298</v>
       </c>
@@ -14506,7 +14499,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="70">
         <v>43143.622916666704</v>
       </c>
@@ -14517,7 +14510,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="70">
         <v>43143.635416666701</v>
       </c>
@@ -14528,7 +14521,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="70">
         <v>43143.650694444397</v>
       </c>
@@ -14539,7 +14532,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="70">
         <v>43143.7277777778</v>
       </c>
@@ -14550,7 +14543,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="70">
         <v>43143.729861111096</v>
       </c>
@@ -14558,7 +14551,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="70">
         <v>43143.742361111101</v>
       </c>
@@ -14569,7 +14562,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="70">
         <v>43143.778472222199</v>
       </c>
@@ -14580,7 +14573,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="70">
         <v>43143.90625</v>
       </c>
@@ -14591,7 +14584,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="70">
         <v>43143.920138888898</v>
       </c>
@@ -14602,7 +14595,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="70">
         <v>43144.319444444402</v>
       </c>
@@ -14613,7 +14606,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="70">
         <v>43144.347222222197</v>
       </c>
@@ -14624,7 +14617,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="70">
         <v>43144.561111111099</v>
       </c>
@@ -14635,7 +14628,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="70">
         <v>43144.568749999999</v>
       </c>
@@ -14646,7 +14639,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="70">
         <v>43144.574999999997</v>
       </c>
@@ -14657,7 +14650,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="70">
         <v>43144.636111111096</v>
       </c>
@@ -14668,7 +14661,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="70">
         <v>43144.637499999997</v>
       </c>
@@ -14679,7 +14672,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="70">
         <v>43144.639583333301</v>
       </c>
@@ -14690,7 +14683,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="70">
         <v>43144.6652777778</v>
       </c>
@@ -14701,7 +14694,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="70">
         <v>43144.681250000001</v>
       </c>
@@ -14712,7 +14705,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="70">
         <v>43144.715277777803</v>
       </c>
@@ -14723,7 +14716,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="70">
         <v>43144.724999999999</v>
       </c>
@@ -14734,7 +14727,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="70">
         <v>43144.829861111102</v>
       </c>
@@ -14745,7 +14738,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="70">
         <v>43144.980555555601</v>
       </c>
@@ -14756,7 +14749,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="70">
         <v>43145.332638888904</v>
       </c>
@@ -14767,7 +14760,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="70">
         <v>43145.386111111096</v>
       </c>
@@ -14778,7 +14771,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="70">
         <v>43145.408333333296</v>
       </c>
@@ -14789,7 +14782,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="70">
         <v>43145.413888888899</v>
       </c>
@@ -14800,7 +14793,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="70">
         <v>43145.604861111096</v>
       </c>
@@ -14811,7 +14804,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="70">
         <v>43145.6159722222</v>
       </c>
@@ -14822,7 +14815,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="70">
         <v>43145.633333333302</v>
       </c>
@@ -14833,7 +14826,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="70">
         <v>43145.638888888898</v>
       </c>
@@ -14844,7 +14837,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="70">
         <v>43145.639583333301</v>
       </c>
@@ -14855,7 +14848,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="70">
         <v>43145.672222222202</v>
       </c>
@@ -14866,7 +14859,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="70">
         <v>43145.695833333302</v>
       </c>
@@ -14877,7 +14870,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="70">
         <v>43145.860416666699</v>
       </c>
@@ -14888,7 +14881,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="70">
         <v>43145.8659722222</v>
       </c>
@@ -14899,7 +14892,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="70">
         <v>43145.947222222203</v>
       </c>
@@ -14910,7 +14903,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="70">
         <v>43145.975694444402</v>
       </c>
@@ -14921,7 +14914,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="70">
         <v>43146.1694444444</v>
       </c>
@@ -14932,7 +14925,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="70">
         <v>43146.308333333298</v>
       </c>
@@ -14943,7 +14936,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="70">
         <v>43146.488888888904</v>
       </c>
@@ -14954,7 +14947,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="70">
         <v>43146.556944444397</v>
       </c>
@@ -14965,7 +14958,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="70">
         <v>43146.578472222202</v>
       </c>
@@ -14976,7 +14969,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="70">
         <v>43146.583333333299</v>
       </c>
@@ -14987,7 +14980,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="70">
         <v>43146.589583333298</v>
       </c>
@@ -14998,7 +14991,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="70">
         <v>43146.697916666701</v>
       </c>
@@ -15009,7 +15002,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="70">
         <v>43146.714583333298</v>
       </c>
@@ -15020,7 +15013,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="70">
         <v>43146.900694444397</v>
       </c>
@@ -15031,7 +15024,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="70">
         <v>43147.509722222203</v>
       </c>
@@ -15042,7 +15035,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="70">
         <v>43147.662499999999</v>
       </c>
@@ -15053,7 +15046,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="70">
         <v>43147.662499999999</v>
       </c>
@@ -15064,7 +15057,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="70">
         <v>43147.702777777798</v>
       </c>
@@ -15075,7 +15068,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="70">
         <v>43147.732638888898</v>
       </c>
@@ -15086,7 +15079,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="70">
         <v>43147.738888888904</v>
       </c>
@@ -15097,7 +15090,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="70">
         <v>43147.847916666702</v>
       </c>
@@ -15108,7 +15101,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="70">
         <v>43147.962500000001</v>
       </c>
@@ -15119,7 +15112,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="70">
         <v>43148.319444444402</v>
       </c>
@@ -15130,7 +15123,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="70">
         <v>43148.326388888898</v>
       </c>
@@ -15141,7 +15134,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="70">
         <v>43148.420138888898</v>
       </c>
@@ -15152,7 +15145,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="70">
         <v>43148.425694444399</v>
       </c>
@@ -15163,7 +15156,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="70">
         <v>43148.488888888904</v>
       </c>
@@ -15174,7 +15167,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="70">
         <v>43148.708333333299</v>
       </c>
@@ -15185,7 +15178,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="70">
         <v>43149.346527777801</v>
       </c>
@@ -15196,7 +15189,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="70">
         <v>43149.555555555598</v>
       </c>
@@ -15207,7 +15200,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="70">
         <v>43150.609722222202</v>
       </c>
@@ -15218,7 +15211,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="70">
         <v>43150.614583333299</v>
       </c>
@@ -15229,7 +15222,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="70">
         <v>43150.645138888904</v>
       </c>
@@ -15240,7 +15233,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="70">
         <v>43150.668749999997</v>
       </c>
@@ -15251,7 +15244,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="70">
         <v>43150.6743055556</v>
       </c>
@@ -15262,7 +15255,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="70">
         <v>43150.675000000003</v>
       </c>
@@ -15273,7 +15266,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="70">
         <v>43150.675000000003</v>
       </c>
@@ -15284,7 +15277,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="70">
         <v>43150.706944444399</v>
       </c>
@@ -15295,7 +15288,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="70">
         <v>43150.710416666698</v>
       </c>
@@ -15306,7 +15299,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="70">
         <v>43150.756944444402</v>
       </c>
@@ -15317,7 +15310,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="70">
         <v>43150.829861111102</v>
       </c>
@@ -15328,7 +15321,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="70">
         <v>43150.839583333298</v>
       </c>
@@ -15339,7 +15332,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="70">
         <v>43151.445833333302</v>
       </c>
@@ -15350,7 +15343,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="70">
         <v>43151.4909722222</v>
       </c>
@@ -15361,7 +15354,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="70">
         <v>43151.609722222202</v>
       </c>
@@ -15372,7 +15365,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="70">
         <v>43151.631249999999</v>
       </c>
@@ -15383,7 +15376,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="70">
         <v>43151.633333333302</v>
       </c>
@@ -15394,7 +15387,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="70">
         <v>43151.636111111096</v>
       </c>
@@ -15405,7 +15398,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="70">
         <v>43151.638888888898</v>
       </c>
@@ -15416,7 +15409,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="70">
         <v>43151.65</v>
       </c>
@@ -15427,7 +15420,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="70">
         <v>43151.661805555603</v>
       </c>
@@ -15438,7 +15431,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="70">
         <v>43151.664583333302</v>
       </c>
@@ -15449,7 +15442,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="70">
         <v>43151.665972222203</v>
       </c>
@@ -15460,7 +15453,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="70">
         <v>43151.673611111102</v>
       </c>
@@ -15471,7 +15464,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="70">
         <v>43151.720138888901</v>
       </c>
@@ -15482,7 +15475,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="70">
         <v>43151.766666666699</v>
       </c>
@@ -15493,7 +15486,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="70">
         <v>43151.784027777801</v>
       </c>
@@ -15504,7 +15497,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="70">
         <v>43151.785416666702</v>
       </c>
@@ -15515,7 +15508,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="70">
         <v>43151.889583333301</v>
       </c>
@@ -15526,7 +15519,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="70">
         <v>43151.890972222202</v>
       </c>
@@ -15537,7 +15530,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="70">
         <v>43151.894444444399</v>
       </c>
@@ -15548,7 +15541,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="70">
         <v>43151.941666666702</v>
       </c>
@@ -15559,7 +15552,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="70">
         <v>43151.9909722222</v>
       </c>
@@ -15570,7 +15563,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="70">
         <v>43152.3</v>
       </c>
@@ -15581,7 +15574,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="70">
         <v>43152.374305555597</v>
       </c>
@@ -15592,7 +15585,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="70">
         <v>43152.515277777798</v>
       </c>
@@ -15603,7 +15596,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="70">
         <v>43152.657638888901</v>
       </c>
@@ -15614,7 +15607,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="70">
         <v>43152.670138888898</v>
       </c>
@@ -15625,7 +15618,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="70">
         <v>43152.743055555598</v>
       </c>
@@ -15636,7 +15629,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="70">
         <v>43152.75</v>
       </c>
@@ -15647,7 +15640,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="70">
         <v>43152.75</v>
       </c>
@@ -15658,7 +15651,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="70">
         <v>43152.75</v>
       </c>
@@ -15669,7 +15662,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="70">
         <v>43152.802777777797</v>
       </c>
@@ -15680,7 +15673,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="70">
         <v>43152.808333333298</v>
       </c>
@@ -15691,7 +15684,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="70">
         <v>43152.913194444402</v>
       </c>
@@ -15702,7 +15695,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="70">
         <v>43152.9152777778</v>
       </c>
@@ -15713,7 +15706,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="70">
         <v>43152.940972222197</v>
       </c>
@@ -15724,7 +15717,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="70">
         <v>43153.0534722222</v>
       </c>
@@ -15735,7 +15728,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="70">
         <v>43153.411111111098</v>
       </c>
@@ -15746,7 +15739,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="70">
         <v>43153.445833333302</v>
       </c>
@@ -15757,7 +15750,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="70">
         <v>43153.586805555598</v>
       </c>
@@ -15768,7 +15761,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="70">
         <v>43153.653472222199</v>
       </c>
@@ -15779,7 +15772,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="70">
         <v>43153.710416666698</v>
       </c>
@@ -15790,7 +15783,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="70">
         <v>43153.714583333298</v>
       </c>
@@ -15801,7 +15794,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="70">
         <v>43153.715972222199</v>
       </c>
@@ -15812,7 +15805,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="70">
         <v>43153.720138888901</v>
       </c>
@@ -15823,7 +15816,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="70">
         <v>43153.722916666702</v>
       </c>
@@ -15834,7 +15827,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="70">
         <v>43153.733333333301</v>
       </c>
@@ -15845,7 +15838,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="70">
         <v>43153.752777777801</v>
       </c>
@@ -15856,7 +15849,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="70">
         <v>43153.755555555603</v>
       </c>
@@ -15867,7 +15860,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="70">
         <v>43153.786111111098</v>
       </c>
@@ -15878,7 +15871,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="70">
         <v>43153.7944444444</v>
       </c>
@@ -15889,7 +15882,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="70">
         <v>43153.818749999999</v>
       </c>
@@ -15900,7 +15893,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="70">
         <v>43153.844444444403</v>
       </c>
@@ -15911,7 +15904,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="70">
         <v>43154.005555555603</v>
       </c>
@@ -15922,7 +15915,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="70">
         <v>43154.011111111096</v>
       </c>
@@ -15933,7 +15926,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="70">
         <v>43154.029861111099</v>
       </c>
@@ -15944,7 +15937,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="70">
         <v>43154.275694444397</v>
       </c>
@@ -15955,7 +15948,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="70">
         <v>43154.358333333301</v>
       </c>
@@ -15966,7 +15959,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="70">
         <v>43154.379166666702</v>
       </c>
@@ -15977,7 +15970,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="70">
         <v>43154.390972222202</v>
       </c>
@@ -15988,7 +15981,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="70">
         <v>43154.643750000003</v>
       </c>
@@ -15999,7 +15992,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="70">
         <v>43154.668055555601</v>
       </c>
@@ -16010,7 +16003,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="70">
         <v>43154.691666666702</v>
       </c>
@@ -16021,7 +16014,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="70">
         <v>43154.771527777797</v>
       </c>
@@ -16032,7 +16025,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="70">
         <v>43154.822222222203</v>
       </c>
@@ -16043,7 +16036,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="70">
         <v>43154.831250000003</v>
       </c>
@@ -16054,7 +16047,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="70">
         <v>43154.863888888904</v>
       </c>
@@ -16065,7 +16058,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="70">
         <v>43154.884722222203</v>
       </c>
@@ -16076,7 +16069,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="70">
         <v>43154.899305555598</v>
       </c>
@@ -16084,7 +16077,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="70">
         <v>43154.911805555603</v>
       </c>
@@ -16095,7 +16088,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="70">
         <v>43155.445138888899</v>
       </c>
@@ -16106,7 +16099,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="70">
         <v>43155.550694444399</v>
       </c>
@@ -16117,7 +16110,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="70">
         <v>43155.622222222199</v>
       </c>
@@ -16128,7 +16121,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="70">
         <v>43155.727083333302</v>
       </c>
@@ -16139,7 +16132,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="70">
         <v>43155.7722222222</v>
       </c>
@@ -16150,7 +16143,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="70">
         <v>43155.846527777801</v>
       </c>
@@ -16161,7 +16154,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="70">
         <v>43155.855555555601</v>
       </c>
@@ -16172,7 +16165,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="70">
         <v>43156.448611111096</v>
       </c>
@@ -16183,7 +16176,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="70">
         <v>43156.7722222222</v>
       </c>
@@ -16191,7 +16184,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="70">
         <v>43157.422222222202</v>
       </c>
@@ -16202,7 +16195,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="70">
         <v>43157.542361111096</v>
       </c>
@@ -16213,7 +16206,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="70">
         <v>43157.675000000003</v>
       </c>
@@ -16224,7 +16217,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="70">
         <v>43157.6784722222</v>
       </c>
@@ -16235,7 +16228,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="70">
         <v>43157.679861111101</v>
       </c>
@@ -16246,7 +16239,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="70">
         <v>43157.680555555598</v>
       </c>
@@ -16257,7 +16250,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="70">
         <v>43157.686805555597</v>
       </c>
@@ -16268,7 +16261,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="70">
         <v>43157.688194444403</v>
       </c>
@@ -16279,7 +16272,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="70">
         <v>43157.689583333296</v>
       </c>
@@ -16290,7 +16283,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="70">
         <v>43157.732638888898</v>
       </c>
@@ -16301,7 +16294,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="70">
         <v>43157.738888888904</v>
       </c>
@@ -16312,7 +16305,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="70">
         <v>43157.761111111096</v>
       </c>
@@ -16323,7 +16316,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="70">
         <v>43157.797916666699</v>
       </c>
@@ -16334,7 +16327,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="70">
         <v>43157.806250000001</v>
       </c>
@@ -16345,7 +16338,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="70">
         <v>43157.850694444402</v>
       </c>
@@ -16356,7 +16349,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="70">
         <v>43157.864583333299</v>
       </c>
@@ -16367,7 +16360,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="70">
         <v>43157.872916666704</v>
       </c>
@@ -16378,7 +16371,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="70">
         <v>43157.896527777797</v>
       </c>
@@ -16389,7 +16382,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="70">
         <v>43157.908333333296</v>
       </c>
@@ -16397,7 +16390,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="70">
         <v>43157.912499999999</v>
       </c>
@@ -16408,7 +16401,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="70">
         <v>43158.269444444399</v>
       </c>
@@ -16419,7 +16412,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="70">
         <v>43158.395138888904</v>
       </c>
@@ -16430,7 +16423,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="70">
         <v>43158.525694444397</v>
       </c>
@@ -16441,7 +16434,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="70">
         <v>43158.707638888904</v>
       </c>
@@ -16452,7 +16445,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="70">
         <v>43158.735416666699</v>
       </c>
@@ -16463,7 +16456,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="70">
         <v>43158.735416666699</v>
       </c>
@@ -16474,7 +16467,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="70">
         <v>43158.767361111102</v>
       </c>
@@ -16482,7 +16475,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="70">
         <v>43158.893750000003</v>
       </c>
@@ -16493,7 +16486,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="70">
         <v>43158.983333333301</v>
       </c>
@@ -16504,7 +16497,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="70">
         <v>43159.104861111096</v>
       </c>
@@ -16515,7 +16508,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="70">
         <v>43159.347916666702</v>
       </c>
@@ -16526,7 +16519,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="70">
         <v>43159.377777777801</v>
       </c>
@@ -16537,7 +16530,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="70">
         <v>43159.390277777798</v>
       </c>
@@ -16548,7 +16541,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="70">
         <v>43159.426388888904</v>
       </c>
@@ -16559,7 +16552,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="70">
         <v>43159.5222222222</v>
       </c>
@@ -16570,7 +16563,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="70">
         <v>43159.546527777798</v>
       </c>
@@ -16581,7 +16574,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="70">
         <v>43159.602083333302</v>
       </c>
@@ -16592,7 +16585,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="70">
         <v>43159.655555555597</v>
       </c>
@@ -16603,7 +16596,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="70">
         <v>43159.656944444403</v>
       </c>
@@ -16614,7 +16607,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="70">
         <v>43159.711111111101</v>
       </c>
@@ -16625,7 +16618,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="70">
         <v>43159.754166666702</v>
       </c>
@@ -16636,7 +16629,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="70">
         <v>43159.760416666701</v>
       </c>
@@ -16647,7 +16640,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="70">
         <v>43159.784722222197</v>
       </c>
@@ -16665,15 +16658,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E1A46C513D6D446A1236525F7ED8048" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a90a60868cbb9f30eb26785a48a17d7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2987eda7-d74f-4356-b66a-f07c93829225" xmlns:ns3="f34a3a25-800e-4071-8a5e-9727d3108910" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="410d265df09fb16a021ba5f83c68383e" ns2:_="" ns3:_="">
     <xsd:import namespace="2987eda7-d74f-4356-b66a-f07c93829225"/>
@@ -16838,6 +16822,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -16845,13 +16838,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB6EEB2-F5B9-401B-957A-8B6C9854031E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECB3C156-4FFB-46AF-9FB9-3C6CCF225E9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2987eda7-d74f-4356-b66a-f07c93829225"/>
+    <ds:schemaRef ds:uri="f34a3a25-800e-4071-8a5e-9727d3108910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECB3C156-4FFB-46AF-9FB9-3C6CCF225E9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB6EEB2-F5B9-401B-957A-8B6C9854031E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7182D911-FE37-4F56-8FD2-D65575056127}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7182D911-FE37-4F56-8FD2-D65575056127}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>